--- a/D_e-나라지표_인기지표_조사/Source/Config.xlsx
+++ b/D_e-나라지표_인기지표_조사/Source/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D348C4D6-2044-4E3E-832C-64090E590F7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908D6F2-F26C-481D-8994-CE0FB1BA2750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="105">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,53 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>YearlyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MonthlyReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Download Monthly Report File Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Yearly Report File Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KSReport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS Vendor Information {Year} Yearly Report</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KS Vendor Information Result File Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Report-{TaxID}-{Year}-{Month}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yearly-Report-{Year}-{TaxID}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>work-items</t>
-  </si>
-  <si>
-    <t>work-items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>System1 Navigate To Work Items</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Window Credential Manager System1_Account</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1082,15 +1035,9 @@
     <t>.xlsx</t>
   </si>
   <si>
-    <t>File extension(Excel)</t>
-  </si>
-  <si>
     <t>.csv</t>
   </si>
   <si>
-    <t>File extension(CSV)</t>
-  </si>
-  <si>
     <t>URL_Hometax</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1317,22 +1264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Mail_Title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mail_Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>smtp.naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1353,18 +1284,585 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[RPA_TypeB] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사업자 휴폐업 조회 결과</t>
+    <t>Anonymous</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet_ImportExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet_EuroZone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국수출입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환율조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사업자등록상태조회</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수출입</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국수출입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환율조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유로존</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL_KITA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.kita.net</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한국무역협회 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_Up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_Down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▲</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>▼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>━</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cell_ImportExport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet_IndexRanking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>e-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나라지표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인기지표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>목록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일의 시트명</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.index.go.kr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL_NaraIndex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나라지표 사이트로 이동하기위한 지표누리 사이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_Nothing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RPA_e-나라지표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_인기지표_조사 결과 메일</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">안녕하세요. RPA Bot입니다.
+e-나라지표_인기지표_조사 결과 메일을 송부드립니다.
+감사합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-나라지표 인기지표 조사 메일 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e-나라지표 인기지표 조사 메일 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Title_BusinessState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Body_BusinessState</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Title_IndexRanking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mail_Body_IndexRanking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사업자등록상태 조사 결과</t>
     </r>
     <r>
       <rPr>
@@ -1436,55 +1934,17 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
- [RPA_TypeB] B_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사업자</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>휴폐업</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>조회</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사업자등록상태 조사</t>
     </r>
     <r>
       <rPr>
@@ -1646,15 +2106,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Anonymous</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet_ImportExport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet_EuroZone</t>
+    <t>사업자등록상태 조사 메일 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록상태 조사 메일 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경없음 또는 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_MaxRankingNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최대 순위 번호</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV 확장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 확장자</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1770,407 +2278,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사업자등록상태조회</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트명</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수출입</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국수출입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환율조사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
       <t>1</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>유로존</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL_KITA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.kita.net</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한국무역협회 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_Up</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_Down</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>▲</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>▼</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Symbol"/>
-        <family val="3"/>
-      </rPr>
-      <t>━</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cell_ImportExport</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sheet_IndexRanking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>나라지표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>인기지표</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>목록</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일의 시트명</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.index.go.kr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL_NaraIndex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나라지표 사이트로 이동하기위한 지표누리 사이트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_Nothing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_RankingNumber</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 조사결과 등록할 셀 위치</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2296,7 +2415,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2322,6 +2441,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2641,7 +2769,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2664,24 +2792,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2696,7 +2824,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -2720,208 +2848,211 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2933,15 +3064,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{169A3B5F-FDC3-4684-99BD-1A5AD34E573E}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" customWidth="1"/>
     <col min="3" max="3" width="32.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.75" style="1"/>
@@ -2958,82 +3089,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="4" customFormat="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A3" s="4" t="s">
-        <v>10</v>
+        <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" s="4" customFormat="1">
+        <v>74</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" s="4" customFormat="1" ht="16.5">
       <c r="A4" s="4" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
+        <v>75</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>100</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="4" customFormat="1" ht="16.5">
-      <c r="A6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="4" customFormat="1" ht="16.5">
-      <c r="A7" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="4" customFormat="1" ht="16.5">
-      <c r="A8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="4" customFormat="1">
-      <c r="A9" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="4">
-        <v>3</v>
-      </c>
-    </row>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="4" customFormat="1"/>
+    <row r="7" spans="1:3" s="4" customFormat="1"/>
+    <row r="8" spans="1:3" s="4" customFormat="1"/>
+    <row r="9" spans="1:3" s="4" customFormat="1"/>
     <row r="10" spans="1:3" s="4" customFormat="1"/>
     <row r="11" spans="1:3" s="4" customFormat="1"/>
     <row r="12" spans="1:3" s="4" customFormat="1"/>
@@ -3042,10 +3145,6 @@
     <row r="15" spans="1:3" s="4" customFormat="1"/>
     <row r="16" spans="1:3" s="4" customFormat="1"/>
     <row r="17" s="4" customFormat="1"/>
-    <row r="18" s="4" customFormat="1"/>
-    <row r="19" s="4" customFormat="1"/>
-    <row r="20" s="4" customFormat="1"/>
-    <row r="21" s="4" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3057,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -3082,54 +3181,54 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>587</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -3137,7 +3236,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>8</v>
@@ -3145,43 +3244,58 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5">
       <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="132">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="117">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" s="7"/>
-      <c r="C12" s="3"/>
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="67.5">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="B16" s="6"/>

--- a/D_e-나라지표_인기지표_조사/Source/Config.xlsx
+++ b/D_e-나라지표_인기지표_조사/Source/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C908D6F2-F26C-481D-8994-CE0FB1BA2750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8E3FA-18D3-473C-B7A0-50ECA03E0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -2823,7 +2823,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -3067,7 +3067,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -3156,8 +3156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>

--- a/D_e-나라지표_인기지표_조사/Source/Config.xlsx
+++ b/D_e-나라지표_인기지표_조사/Source/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\D_e-나라지표_인기지표_조사\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dexter\Source\ALPACO8\00_과제\실습과제_1121_제출1129_24\B_사업자_휴폐업_조회\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC8E3FA-18D3-473C-B7A0-50ECA03E0418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98655AFA-8BB2-4D30-A0E2-D2003EB53221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
+    <workbookView xWindow="11280" yWindow="-16410" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{46CAC932-19BF-4421-AA43-1A3B90B5C468}"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="2" r:id="rId1"/>
@@ -1915,6 +1915,193 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>사업자등록상태 조사 메일 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자등록상태 조사 메일 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상승</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경없음 또는 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code_MaxRankingNumber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>추출할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최대 순위 번호</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSV 확장자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Excel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 확장자</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>한국수출입</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>및</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>환율조사</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>엑셀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시트명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에 조사결과 등록할 셀 위치</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1982,26 +2169,7 @@
         <family val="2"/>
         <charset val="129"/>
       </rPr>
-      <t>보고서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결과물을</t>
+      <t>보고서를</t>
     </r>
     <r>
       <rPr>
@@ -2102,193 +2270,6 @@
         <family val="3"/>
       </rPr>
       <t>}</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자등록상태 조사 메일 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사업자등록상태 조사 메일 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상승</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>변경없음 또는 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Code_MaxRankingNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>추출할</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 최대 순위 번호</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CSV 확장자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Excel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 확장자</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>한국수출입</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>및</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>환율조사</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>엑셀</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>파일의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시트명</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에 조사결과 등록할 셀 위치</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2823,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D129B3-C630-4D4F-94AA-81D79A80C13C}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2986,7 +2967,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2997,7 +2978,7 @@
         <v>39</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -3052,7 +3033,7 @@
         <v>77</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +3078,7 @@
         <v>73</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" s="4" customFormat="1" ht="16.5">
@@ -3108,7 +3089,7 @@
         <v>74</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="4" customFormat="1" ht="16.5">
@@ -3119,18 +3100,18 @@
         <v>75</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="4" customFormat="1">
       <c r="A5" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="4">
         <v>3</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="4" customFormat="1"/>
@@ -3156,8 +3137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA834E7-DDAB-489E-9801-6DDD8D246B8E}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -3261,18 +3242,18 @@
         <v>93</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="117">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="102">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:3">
